--- a/魂师对决.xlsx
+++ b/魂师对决.xlsx
@@ -847,7 +847,7 @@
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -903,6 +903,9 @@
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
+      <c r="H5" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B6" s="2"/>
